--- a/10350_0145.xlsx
+++ b/10350_0145.xlsx
@@ -11617,131 +11617,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId460"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>1197</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="461" name="Image 461" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId461"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>1197</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="462" name="Image 462" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId462"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>1197</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="463" name="Image 463" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId463"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>1197</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="464" name="Image 464" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId464"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>1197</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="465" name="Image 465" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId465"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12044,7 +11919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13650,14 +13525,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>103.7295557_2.0962384_10350_0145_37</t>
+          <t>103.8417332_1.7182243_10350_0145_37</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>103.7295557</v>
+        <v>103.8417332</v>
       </c>
       <c r="C38" t="n">
-        <v>2.0962384</v>
+        <v>1.7182243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -13666,41 +13541,41 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>cuts/103.7295557,2.0962384_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.8417332,1.7182243_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>cuts/103.7295557,2.0962384_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.8417332,1.7182243_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>cuts/103.7295557,2.0962384_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.8417332,1.7182243_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>cuts/103.7295557,2.0962384_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.8417332,1.7182243_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>cuts/103.7295557,2.0962384_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.8417332,1.7182243_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>103.8417332_1.7182243_10350_0145_38</t>
+          <t>103.6578309_1.8860779_10350_0145_38</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>103.8417332</v>
+        <v>103.6578309</v>
       </c>
       <c r="C39" t="n">
-        <v>1.7182243</v>
+        <v>1.8860779</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -13709,41 +13584,41 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cuts/103.8417332,1.7182243_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.6578309,1.8860779_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>cuts/103.8417332,1.7182243_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.6578309,1.8860779_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>cuts/103.8417332,1.7182243_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.6578309,1.8860779_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>cuts/103.8417332,1.7182243_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.6578309,1.8860779_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>cuts/103.8417332,1.7182243_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.6578309,1.8860779_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>103.6578309_1.8860779_10350_0145_39</t>
+          <t>103.4608963_1.9039164_10350_0145_39</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>103.6578309</v>
+        <v>103.4608963</v>
       </c>
       <c r="C40" t="n">
-        <v>1.8860779</v>
+        <v>1.9039164</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -13752,41 +13627,41 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>cuts/103.6578309,1.8860779_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.4608963,1.9039164_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>cuts/103.6578309,1.8860779_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.4608963,1.9039164_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>cuts/103.6578309,1.8860779_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.4608963,1.9039164_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>cuts/103.6578309,1.8860779_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.4608963,1.9039164_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>cuts/103.6578309,1.8860779_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.4608963,1.9039164_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>103.4608963_1.9039164_10350_0145_40</t>
+          <t>103.4185419_1.8769152_10350_0145_40</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>103.4608963</v>
+        <v>103.4185419</v>
       </c>
       <c r="C41" t="n">
-        <v>1.9039164</v>
+        <v>1.8769152</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -13795,41 +13670,41 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>cuts/103.4608963,1.9039164_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.4185419,1.8769152_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>cuts/103.4608963,1.9039164_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.4185419,1.8769152_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>cuts/103.4608963,1.9039164_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.4185419,1.8769152_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>cuts/103.4608963,1.9039164_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.4185419,1.8769152_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>cuts/103.4608963,1.9039164_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.4185419,1.8769152_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>103.4185419_1.8769152_10350_0145_41</t>
+          <t>103.5651152_1.8315824_10350_0145_41</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>103.4185419</v>
+        <v>103.5651152</v>
       </c>
       <c r="C42" t="n">
-        <v>1.8769152</v>
+        <v>1.8315824</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -13838,41 +13713,41 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>cuts/103.4185419,1.8769152_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.5651152,1.8315824_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>cuts/103.4185419,1.8769152_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.5651152,1.8315824_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>cuts/103.4185419,1.8769152_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.5651152,1.8315824_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>cuts/103.4185419,1.8769152_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.5651152,1.8315824_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>cuts/103.4185419,1.8769152_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.5651152,1.8315824_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>103.5651152_1.8315824_10350_0145_42</t>
+          <t>103.4664015_1.7495831_10350_0145_42</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>103.5651152</v>
+        <v>103.4664015</v>
       </c>
       <c r="C43" t="n">
-        <v>1.8315824</v>
+        <v>1.7495831</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -13881,41 +13756,41 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>cuts/103.5651152,1.8315824_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.4664015,1.7495831_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>cuts/103.5651152,1.8315824_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.4664015,1.7495831_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>cuts/103.5651152,1.8315824_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.4664015,1.7495831_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>cuts/103.5651152,1.8315824_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.4664015,1.7495831_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>cuts/103.5651152,1.8315824_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.4664015,1.7495831_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>103.4664015_1.7495831_10350_0145_43</t>
+          <t>103.5821173_1.6620819_10350_0145_43</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>103.4664015</v>
+        <v>103.5821173</v>
       </c>
       <c r="C44" t="n">
-        <v>1.7495831</v>
+        <v>1.6620819</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -13924,41 +13799,41 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>cuts/103.4664015,1.7495831_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.5821173,1.6620819_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>cuts/103.4664015,1.7495831_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.5821173,1.6620819_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>cuts/103.4664015,1.7495831_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.5821173,1.6620819_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>cuts/103.4664015,1.7495831_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.5821173,1.6620819_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>cuts/103.4664015,1.7495831_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.5821173,1.6620819_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>103.5821173_1.6620819_10350_0145_44</t>
+          <t>103.5714462_1.6609156_10350_0145_44</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>103.5821173</v>
+        <v>103.5714462</v>
       </c>
       <c r="C45" t="n">
-        <v>1.6620819</v>
+        <v>1.6609156</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -13967,41 +13842,41 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>cuts/103.5821173,1.6620819_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.5714462,1.6609156_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>cuts/103.5821173,1.6620819_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.5714462,1.6609156_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>cuts/103.5821173,1.6620819_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.5714462,1.6609156_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>cuts/103.5821173,1.6620819_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.5714462,1.6609156_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>cuts/103.5821173,1.6620819_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.5714462,1.6609156_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>103.5714462_1.6609156_10350_0145_45</t>
+          <t>103.5285949_1.6390832_10350_0145_45</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>103.5714462</v>
+        <v>103.5285949</v>
       </c>
       <c r="C46" t="n">
-        <v>1.6609156</v>
+        <v>1.6390832</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -14010,41 +13885,41 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>cuts/103.5714462,1.6609156_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.5285949,1.6390832_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>cuts/103.5714462,1.6609156_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.5285949,1.6390832_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>cuts/103.5714462,1.6609156_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.5285949,1.6390832_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>cuts/103.5714462,1.6609156_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.5285949,1.6390832_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>cuts/103.5714462,1.6609156_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.5285949,1.6390832_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>103.5285949_1.6390832_10350_0145_46</t>
+          <t>103.4392291_1.5044159_10350_0145_46</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>103.5285949</v>
+        <v>103.4392291</v>
       </c>
       <c r="C47" t="n">
-        <v>1.6390832</v>
+        <v>1.5044159</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -14053,41 +13928,41 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>cuts/103.5285949,1.6390832_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.4392291,1.5044159_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>cuts/103.5285949,1.6390832_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.4392291,1.5044159_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>cuts/103.5285949,1.6390832_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.4392291,1.5044159_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>cuts/103.5285949,1.6390832_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.4392291,1.5044159_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>cuts/103.5285949,1.6390832_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.4392291,1.5044159_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>103.4392291_1.5044159_10350_0145_47</t>
+          <t>103.3775432_1.4679134_10350_0145_47</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>103.4392291</v>
+        <v>103.3775432</v>
       </c>
       <c r="C48" t="n">
-        <v>1.5044159</v>
+        <v>1.4679134</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -14096,41 +13971,41 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>cuts/103.4392291,1.5044159_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.3775432,1.4679134_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>cuts/103.4392291,1.5044159_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.3775432,1.4679134_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>cuts/103.4392291,1.5044159_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.3775432,1.4679134_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>cuts/103.4392291,1.5044159_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.3775432,1.4679134_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>cuts/103.4392291,1.5044159_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.3775432,1.4679134_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>103.3775432_1.4679134_10350_0145_48</t>
+          <t>103.3313603_1.4820771_10350_0145_48</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>103.3775432</v>
+        <v>103.3313603</v>
       </c>
       <c r="C49" t="n">
-        <v>1.4679134</v>
+        <v>1.4820771</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -14139,41 +14014,41 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>cuts/103.3775432,1.4679134_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.3313603,1.4820771_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>cuts/103.3775432,1.4679134_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.3313603,1.4820771_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>cuts/103.3775432,1.4679134_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.3313603,1.4820771_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>cuts/103.3775432,1.4679134_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.3313603,1.4820771_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>cuts/103.3775432,1.4679134_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.3313603,1.4820771_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>103.3313603_1.4820771_10350_0145_49</t>
+          <t>103.4454064_1.1497494_10350_0145_49</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>103.3313603</v>
+        <v>103.4454064</v>
       </c>
       <c r="C50" t="n">
-        <v>1.4820771</v>
+        <v>1.1497494</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -14182,41 +14057,41 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>cuts/103.3313603,1.4820771_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.4454064,1.1497494_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>cuts/103.3313603,1.4820771_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.4454064,1.1497494_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>cuts/103.3313603,1.4820771_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.4454064,1.1497494_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>cuts/103.3313603,1.4820771_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.4454064,1.1497494_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>cuts/103.3313603,1.4820771_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.4454064,1.1497494_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>103.4454064_1.1497494_10350_0145_50</t>
+          <t>103.4652452_1.0365831_10350_0145_50</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>103.4454064</v>
+        <v>103.4652452</v>
       </c>
       <c r="C51" t="n">
-        <v>1.1497494</v>
+        <v>1.0365831</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -14225,41 +14100,41 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>cuts/103.4454064,1.1497494_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.4652452,1.0365831_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>cuts/103.4454064,1.1497494_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.4652452,1.0365831_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>cuts/103.4454064,1.1497494_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.4652452,1.0365831_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>cuts/103.4454064,1.1497494_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.4652452,1.0365831_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>cuts/103.4454064,1.1497494_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.4652452,1.0365831_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>103.4652452_1.0365831_10350_0145_51</t>
+          <t>103.4970829_1.0829167_10350_0145_51</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>103.4652452</v>
+        <v>103.4970829</v>
       </c>
       <c r="C52" t="n">
-        <v>1.0365831</v>
+        <v>1.0829167</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -14268,41 +14143,41 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>cuts/103.4652452,1.0365831_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.4970829,1.0829167_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>cuts/103.4652452,1.0365831_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.4970829,1.0829167_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>cuts/103.4652452,1.0365831_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.4970829,1.0829167_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>cuts/103.4652452,1.0365831_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.4970829,1.0829167_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>cuts/103.4652452,1.0365831_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.4970829,1.0829167_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>103.4970829_1.0829167_10350_0145_52</t>
+          <t>103.3797412_0.8912469_10350_0145_52</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>103.4970829</v>
+        <v>103.3797412</v>
       </c>
       <c r="C53" t="n">
-        <v>1.0829167</v>
+        <v>0.8912469</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -14311,41 +14186,41 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>cuts/103.4970829,1.0829167_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.3797412,0.8912469_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>cuts/103.4970829,1.0829167_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.3797412,0.8912469_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>cuts/103.4970829,1.0829167_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.3797412,0.8912469_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>cuts/103.4970829,1.0829167_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.3797412,0.8912469_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>cuts/103.4970829,1.0829167_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.3797412,0.8912469_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>103.3797412_0.8912469_10350_0145_53</t>
+          <t>103.1751635_1.3278934_10350_0145_53</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>103.3797412</v>
+        <v>103.1751635</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8912469</v>
+        <v>1.3278934</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -14354,41 +14229,41 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>cuts/103.3797412,0.8912469_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.1751635,1.3278934_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>cuts/103.3797412,0.8912469_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.1751635,1.3278934_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>cuts/103.3797412,0.8912469_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.1751635,1.3278934_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>cuts/103.3797412,0.8912469_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.1751635,1.3278934_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>cuts/103.3797412,0.8912469_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.1751635,1.3278934_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>103.1751635_1.3278934_10350_0145_54</t>
+          <t>103.3476802_1.7622449_10350_0145_54</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>103.1751635</v>
+        <v>103.3476802</v>
       </c>
       <c r="C55" t="n">
-        <v>1.3278934</v>
+        <v>1.7622449</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -14397,41 +14272,41 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>cuts/103.1751635,1.3278934_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.3476802,1.7622449_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>cuts/103.1751635,1.3278934_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.3476802,1.7622449_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>cuts/103.1751635,1.3278934_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.3476802,1.7622449_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>cuts/103.1751635,1.3278934_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.3476802,1.7622449_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>cuts/103.1751635,1.3278934_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.3476802,1.7622449_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>103.3476802_1.7622449_10350_0145_55</t>
+          <t>103.3315045_1.7842438_10350_0145_55</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>103.3476802</v>
+        <v>103.3315045</v>
       </c>
       <c r="C56" t="n">
-        <v>1.7622449</v>
+        <v>1.7842438</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -14440,41 +14315,41 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>cuts/103.3476802,1.7622449_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.3315045,1.7842438_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>cuts/103.3476802,1.7622449_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.3315045,1.7842438_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>cuts/103.3476802,1.7622449_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.3315045,1.7842438_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>cuts/103.3476802,1.7622449_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.3315045,1.7842438_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>cuts/103.3476802,1.7622449_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.3315045,1.7842438_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>103.3315045_1.7842438_10350_0145_56</t>
+          <t>103.3268356_1.7850768_10350_0145_56</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>103.3315045</v>
+        <v>103.3268356</v>
       </c>
       <c r="C57" t="n">
-        <v>1.7842438</v>
+        <v>1.7850768</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -14483,41 +14358,41 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>cuts/103.3315045,1.7842438_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.3268356,1.7850768_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>cuts/103.3315045,1.7842438_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.3268356,1.7850768_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>cuts/103.3315045,1.7842438_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.3268356,1.7850768_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>cuts/103.3315045,1.7842438_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.3268356,1.7850768_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>cuts/103.3315045,1.7842438_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.3268356,1.7850768_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>103.3268356_1.7850768_10350_0145_57</t>
+          <t>103.4218751_1.9304154_10350_0145_57</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>103.3268356</v>
+        <v>103.4218751</v>
       </c>
       <c r="C58" t="n">
-        <v>1.7850768</v>
+        <v>1.9304154</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -14526,41 +14401,41 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>cuts/103.3268356,1.7850768_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.4218751,1.9304154_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>cuts/103.3268356,1.7850768_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.4218751,1.9304154_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>cuts/103.3268356,1.7850768_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.4218751,1.9304154_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>cuts/103.3268356,1.7850768_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.4218751,1.9304154_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>cuts/103.3268356,1.7850768_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.4218751,1.9304154_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>103.4218751_1.9304154_10350_0145_58</t>
+          <t>103.3208189_1.9604096_10350_0145_58</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>103.4218751</v>
+        <v>103.3208189</v>
       </c>
       <c r="C59" t="n">
-        <v>1.9304154</v>
+        <v>1.9604096</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -14569,41 +14444,41 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>cuts/103.4218751,1.9304154_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.3208189,1.9604096_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>cuts/103.4218751,1.9304154_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.3208189,1.9604096_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>cuts/103.4218751,1.9304154_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.3208189,1.9604096_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>cuts/103.4218751,1.9304154_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.3208189,1.9604096_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>cuts/103.4218751,1.9304154_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.3208189,1.9604096_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>103.3208189_1.9604096_10350_0145_59</t>
+          <t>103.3059768_1.9687417_10350_0145_59</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>103.3208189</v>
+        <v>103.3059768</v>
       </c>
       <c r="C60" t="n">
-        <v>1.9604096</v>
+        <v>1.9687417</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -14612,41 +14487,41 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>cuts/103.3208189,1.9604096_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.3059768,1.9687417_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>cuts/103.3208189,1.9604096_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.3059768,1.9687417_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>cuts/103.3208189,1.9604096_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.3059768,1.9687417_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>cuts/103.3208189,1.9604096_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.3059768,1.9687417_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>cuts/103.3208189,1.9604096_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.3059768,1.9687417_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>103.3059768_1.9687417_10350_0145_60</t>
+          <t>103.4670657_1.9394165_10350_0145_60</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>103.3059768</v>
+        <v>103.4670657</v>
       </c>
       <c r="C61" t="n">
-        <v>1.9687417</v>
+        <v>1.9394165</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -14655,41 +14530,41 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>cuts/103.3059768,1.9687417_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.4670657,1.9394165_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>cuts/103.3059768,1.9687417_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.4670657,1.9394165_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>cuts/103.3059768,1.9687417_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.4670657,1.9394165_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>cuts/103.3059768,1.9687417_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.4670657,1.9394165_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>cuts/103.3059768,1.9687417_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.4670657,1.9394165_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>103.4670657_1.9394165_10350_0145_61</t>
+          <t>103.0820182_1.9807115_10350_0145_61</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>103.4670657</v>
+        <v>103.0820182</v>
       </c>
       <c r="C62" t="n">
-        <v>1.9394165</v>
+        <v>1.9807115</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -14698,41 +14573,41 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>cuts/103.4670657,1.9394165_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.0820182,1.9807115_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>cuts/103.4670657,1.9394165_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.0820182,1.9807115_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>cuts/103.4670657,1.9394165_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.0820182,1.9807115_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>cuts/103.4670657,1.9394165_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.0820182,1.9807115_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>cuts/103.4670657,1.9394165_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.0820182,1.9807115_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>103.0820182_1.9807115_10350_0145_62</t>
+          <t>103.0791878_1.9563776_10350_0145_62</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>103.0820182</v>
+        <v>103.0791878</v>
       </c>
       <c r="C63" t="n">
-        <v>1.9807115</v>
+        <v>1.9563776</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -14741,41 +14616,41 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>cuts/103.0820182,1.9807115_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.0791878,1.9563776_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>cuts/103.0820182,1.9807115_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.0791878,1.9563776_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>cuts/103.0820182,1.9807115_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.0791878,1.9563776_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>cuts/103.0820182,1.9807115_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.0791878,1.9563776_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>cuts/103.0820182,1.9807115_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.0791878,1.9563776_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>103.0791878_1.9563776_10350_0145_63</t>
+          <t>103.2012538_1.9595637_10350_0145_63</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>103.0791878</v>
+        <v>103.2012538</v>
       </c>
       <c r="C64" t="n">
-        <v>1.9563776</v>
+        <v>1.9595637</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -14784,41 +14659,41 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>cuts/103.0791878,1.9563776_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.2012538,1.9595637_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>cuts/103.0791878,1.9563776_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.2012538,1.9595637_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>cuts/103.0791878,1.9563776_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.2012538,1.9595637_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>cuts/103.0791878,1.9563776_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.2012538,1.9595637_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>cuts/103.0791878,1.9563776_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.2012538,1.9595637_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>103.2012538_1.9595637_10350_0145_64</t>
+          <t>103.1922526_1.9322291_10350_0145_64</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>103.2012538</v>
+        <v>103.1922526</v>
       </c>
       <c r="C65" t="n">
-        <v>1.9595637</v>
+        <v>1.9322291</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -14827,41 +14702,41 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>cuts/103.2012538,1.9595637_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.1922526,1.9322291_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>cuts/103.2012538,1.9595637_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.1922526,1.9322291_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>cuts/103.2012538,1.9595637_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.1922526,1.9322291_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>cuts/103.2012538,1.9595637_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.1922526,1.9322291_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>cuts/103.2012538,1.9595637_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.1922526,1.9322291_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>103.1922526_1.9322291_10350_0145_65</t>
+          <t>103.2122792_1.8070651_10350_0145_65</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>103.1922526</v>
+        <v>103.2122792</v>
       </c>
       <c r="C66" t="n">
-        <v>1.9322291</v>
+        <v>1.8070651</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -14870,41 +14745,41 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>cuts/103.1922526,1.9322291_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.2122792,1.8070651_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>cuts/103.1922526,1.9322291_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.2122792,1.8070651_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>cuts/103.1922526,1.9322291_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.2122792,1.8070651_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>cuts/103.1922526,1.9322291_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.2122792,1.8070651_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>cuts/103.1922526,1.9322291_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.2122792,1.8070651_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>103.2122792_1.8070651_10350_0145_66</t>
+          <t>103.0837763_1.4887118_10350_0145_66</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>103.2122792</v>
+        <v>103.0837763</v>
       </c>
       <c r="C67" t="n">
-        <v>1.8070651</v>
+        <v>1.4887118</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -14913,41 +14788,41 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>cuts/103.2122792,1.8070651_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.0837763,1.4887118_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>cuts/103.2122792,1.8070651_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.0837763,1.4887118_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>cuts/103.2122792,1.8070651_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.0837763,1.4887118_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>cuts/103.2122792,1.8070651_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.0837763,1.4887118_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>cuts/103.2122792,1.8070651_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.0837763,1.4887118_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>103.0837763_1.4887118_10350_0145_67</t>
+          <t>103.1689646_1.5368925_10350_0145_67</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>103.0837763</v>
+        <v>103.1689646</v>
       </c>
       <c r="C68" t="n">
-        <v>1.4887118</v>
+        <v>1.5368925</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -14956,41 +14831,41 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>cuts/103.0837763,1.4887118_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.1689646,1.5368925_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>cuts/103.0837763,1.4887118_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.1689646,1.5368925_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>cuts/103.0837763,1.4887118_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.1689646,1.5368925_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>cuts/103.0837763,1.4887118_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.1689646,1.5368925_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>cuts/103.0837763,1.4887118_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.1689646,1.5368925_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>103.1689646_1.5368925_10350_0145_68</t>
+          <t>103.1188482_1.4013540_10350_0145_68</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>103.1689646</v>
+        <v>103.1188482</v>
       </c>
       <c r="C69" t="n">
-        <v>1.5368925</v>
+        <v>1.401354</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -14999,41 +14874,41 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>cuts/103.1689646,1.5368925_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.1188482,1.4013540_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>cuts/103.1689646,1.5368925_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.1188482,1.4013540_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>cuts/103.1689646,1.5368925_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.1188482,1.4013540_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>cuts/103.1689646,1.5368925_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.1188482,1.4013540_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>cuts/103.1689646,1.5368925_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.1188482,1.4013540_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>103.1188482_1.4013540_10350_0145_69</t>
+          <t>103.1046329_1.3959275_10350_0145_69</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>103.1188482</v>
+        <v>103.1046329</v>
       </c>
       <c r="C70" t="n">
-        <v>1.401354</v>
+        <v>1.3959275</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -15042,41 +14917,41 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>cuts/103.1188482,1.4013540_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.1046329,1.3959275_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>cuts/103.1188482,1.4013540_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.1046329,1.3959275_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>cuts/103.1188482,1.4013540_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.1046329,1.3959275_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>cuts/103.1188482,1.4013540_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.1046329,1.3959275_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>cuts/103.1188482,1.4013540_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.1046329,1.3959275_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>103.1046329_1.3959275_10350_0145_70</t>
+          <t>103.1281576_1.2878862_10350_0145_70</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>103.1046329</v>
+        <v>103.1281576</v>
       </c>
       <c r="C71" t="n">
-        <v>1.3959275</v>
+        <v>1.2878862</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -15085,41 +14960,41 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>cuts/103.1046329,1.3959275_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.1281576,1.2878862_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>cuts/103.1046329,1.3959275_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.1281576,1.2878862_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>cuts/103.1046329,1.3959275_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.1281576,1.2878862_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>cuts/103.1046329,1.3959275_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.1281576,1.2878862_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>cuts/103.1046329,1.3959275_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.1281576,1.2878862_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>103.1281576_1.2878862_10350_0145_71</t>
+          <t>103.1290140_1.1482197_10350_0145_71</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>103.1281576</v>
+        <v>103.129014</v>
       </c>
       <c r="C72" t="n">
-        <v>1.2878862</v>
+        <v>1.1482197</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -15128,41 +15003,41 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>cuts/103.1281576,1.2878862_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.1290140,1.1482197_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>cuts/103.1281576,1.2878862_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.1290140,1.1482197_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>cuts/103.1281576,1.2878862_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.1290140,1.1482197_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>cuts/103.1281576,1.2878862_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.1290140,1.1482197_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>cuts/103.1281576,1.2878862_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.1290140,1.1482197_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>103.1290140_1.1482197_10350_0145_72</t>
+          <t>103.1743792_0.9857266_10350_0145_72</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>103.129014</v>
+        <v>103.1743792</v>
       </c>
       <c r="C73" t="n">
-        <v>1.1482197</v>
+        <v>0.9857266</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -15171,41 +15046,41 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>cuts/103.1290140,1.1482197_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.1743792,0.9857266_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>cuts/103.1290140,1.1482197_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.1743792,0.9857266_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>cuts/103.1290140,1.1482197_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.1743792,0.9857266_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>cuts/103.1290140,1.1482197_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.1743792,0.9857266_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>cuts/103.1290140,1.1482197_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.1743792,0.9857266_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>103.1743792_0.9857266_10350_0145_73</t>
+          <t>103.0653716_0.9595417_10350_0145_73</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>103.1743792</v>
+        <v>103.0653716</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9857266</v>
+        <v>0.9595417000000001</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -15214,41 +15089,41 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>cuts/103.1743792,0.9857266_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.0653716,0.9595417_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>cuts/103.1743792,0.9857266_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.0653716,0.9595417_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>cuts/103.1743792,0.9857266_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.0653716,0.9595417_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>cuts/103.1743792,0.9857266_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.0653716,0.9595417_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>cuts/103.1743792,0.9857266_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.0653716,0.9595417_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>103.0653716_0.9595417_10350_0145_74</t>
+          <t>103.1672224_0.9127256_10350_0145_74</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>103.0653716</v>
+        <v>103.1672224</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9595417000000001</v>
+        <v>0.9127256</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -15257,41 +15132,41 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>cuts/103.0653716,0.9595417_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.1672224,0.9127256_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>cuts/103.0653716,0.9595417_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.1672224,0.9127256_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>cuts/103.0653716,0.9595417_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.1672224,0.9127256_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>cuts/103.0653716,0.9595417_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.1672224,0.9127256_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>cuts/103.0653716,0.9595417_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.1672224,0.9127256_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>103.1672224_0.9127256_10350_0145_75</t>
+          <t>102.9663689_0.9276872_10350_0145_75</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>103.1672224</v>
+        <v>102.9663689</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9127256</v>
+        <v>0.9276872</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -15300,41 +15175,41 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>cuts/103.1672224,0.9127256_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.9663689,0.9276872_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>cuts/103.1672224,0.9127256_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.9663689,0.9276872_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>cuts/103.1672224,0.9127256_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.9663689,0.9276872_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>cuts/103.1672224,0.9127256_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.9663689,0.9276872_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>cuts/103.1672224,0.9127256_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.9663689,0.9276872_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>102.9663689_0.9276872_10350_0145_76</t>
+          <t>103.0078010_1.2568632_10350_0145_76</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>102.9663689</v>
+        <v>103.007801</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9276872</v>
+        <v>1.2568632</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -15343,41 +15218,41 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>cuts/102.9663689,0.9276872_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.0078010,1.2568632_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>cuts/102.9663689,0.9276872_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.0078010,1.2568632_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>cuts/102.9663689,0.9276872_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.0078010,1.2568632_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>cuts/102.9663689,0.9276872_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.0078010,1.2568632_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>cuts/102.9663689,0.9276872_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.0078010,1.2568632_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>103.0078010_1.2568632_10350_0145_77</t>
+          <t>102.9922751_1.3563598_10350_0145_77</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>103.007801</v>
+        <v>102.9922751</v>
       </c>
       <c r="C78" t="n">
-        <v>1.2568632</v>
+        <v>1.3563598</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -15386,41 +15261,41 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>cuts/103.0078010,1.2568632_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.9922751,1.3563598_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>cuts/103.0078010,1.2568632_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.9922751,1.3563598_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>cuts/103.0078010,1.2568632_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.9922751,1.3563598_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>cuts/103.0078010,1.2568632_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.9922751,1.3563598_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>cuts/103.0078010,1.2568632_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.9922751,1.3563598_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>102.9922751_1.3563598_10350_0145_78</t>
+          <t>102.9987689_1.3925279_10350_0145_78</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>102.9922751</v>
+        <v>102.9987689</v>
       </c>
       <c r="C79" t="n">
-        <v>1.3563598</v>
+        <v>1.3925279</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -15429,41 +15304,41 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>cuts/102.9922751,1.3563598_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.9987689,1.3925279_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>cuts/102.9922751,1.3563598_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.9987689,1.3925279_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>cuts/102.9922751,1.3563598_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.9987689,1.3925279_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>cuts/102.9922751,1.3563598_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.9987689,1.3925279_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>cuts/102.9922751,1.3563598_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.9987689,1.3925279_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>102.9987689_1.3925279_10350_0145_79</t>
+          <t>103.0566214_1.3818733_10350_0145_79</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>102.9987689</v>
+        <v>103.0566214</v>
       </c>
       <c r="C80" t="n">
-        <v>1.3925279</v>
+        <v>1.3818733</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -15472,41 +15347,41 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>cuts/102.9987689,1.3925279_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.0566214,1.3818733_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>cuts/102.9987689,1.3925279_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.0566214,1.3818733_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>cuts/102.9987689,1.3925279_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.0566214,1.3818733_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>cuts/102.9987689,1.3925279_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.0566214,1.3818733_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>cuts/102.9987689,1.3925279_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.0566214,1.3818733_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>103.0566214_1.3818733_10350_0145_80</t>
+          <t>103.0450501_1.7197044_10350_0145_80</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>103.0566214</v>
+        <v>103.0450501</v>
       </c>
       <c r="C81" t="n">
-        <v>1.3818733</v>
+        <v>1.7197044</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -15515,41 +15390,41 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>cuts/103.0566214,1.3818733_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.0450501,1.7197044_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>cuts/103.0566214,1.3818733_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.0450501,1.7197044_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>cuts/103.0566214,1.3818733_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.0450501,1.7197044_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>cuts/103.0566214,1.3818733_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.0450501,1.7197044_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>cuts/103.0566214,1.3818733_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.0450501,1.7197044_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>103.0450501_1.7197044_10350_0145_81</t>
+          <t>102.9953121_1.9420272_10350_0145_81</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>103.0450501</v>
+        <v>102.9953121</v>
       </c>
       <c r="C82" t="n">
-        <v>1.7197044</v>
+        <v>1.9420272</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -15558,41 +15433,41 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>cuts/103.0450501,1.7197044_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.9953121,1.9420272_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>cuts/103.0450501,1.7197044_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.9953121,1.9420272_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>cuts/103.0450501,1.7197044_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.9953121,1.9420272_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>cuts/103.0450501,1.7197044_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.9953121,1.9420272_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>cuts/103.0450501,1.7197044_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.9953121,1.9420272_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>102.9953121_1.9420272_10350_0145_82</t>
+          <t>103.4045538_1.4252480_10350_0145_82</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>102.9953121</v>
+        <v>103.4045538</v>
       </c>
       <c r="C83" t="n">
-        <v>1.9420272</v>
+        <v>1.425248</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -15601,41 +15476,41 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>cuts/102.9953121,1.9420272_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.4045538,1.4252480_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>cuts/102.9953121,1.9420272_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.4045538,1.4252480_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>cuts/102.9953121,1.9420272_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.4045538,1.4252480_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>cuts/102.9953121,1.9420272_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.4045538,1.4252480_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>cuts/102.9953121,1.9420272_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.4045538,1.4252480_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>103.4045538_1.4252480_10350_0145_83</t>
+          <t>103.9940303_1.2456962_10350_0145_83</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>103.4045538</v>
+        <v>103.9940303</v>
       </c>
       <c r="C84" t="n">
-        <v>1.425248</v>
+        <v>1.2456962</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -15644,41 +15519,41 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>cuts/103.4045538,1.4252480_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.9940303,1.2456962_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>cuts/103.4045538,1.4252480_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.9940303,1.2456962_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>cuts/103.4045538,1.4252480_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.9940303,1.2456962_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>cuts/103.4045538,1.4252480_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.9940303,1.2456962_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>cuts/103.4045538,1.4252480_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.9940303,1.2456962_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>103.9940303_1.2456962_10350_0145_84</t>
+          <t>103.6956382_1.3602416_10350_0145_84</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>103.9940303</v>
+        <v>103.6956382</v>
       </c>
       <c r="C85" t="n">
-        <v>1.2456962</v>
+        <v>1.3602416</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -15687,41 +15562,41 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>cuts/103.9940303,1.2456962_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.6956382,1.3602416_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>cuts/103.9940303,1.2456962_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.6956382,1.3602416_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>cuts/103.9940303,1.2456962_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.6956382,1.3602416_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>cuts/103.9940303,1.2456962_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.6956382,1.3602416_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>cuts/103.9940303,1.2456962_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.6956382,1.3602416_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>103.6956382_1.3602416_10350_0145_85</t>
+          <t>103.7148166_1.4265732_10350_0145_85</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>103.6956382</v>
+        <v>103.7148166</v>
       </c>
       <c r="C86" t="n">
-        <v>1.3602416</v>
+        <v>1.4265732</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -15730,41 +15605,41 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>cuts/103.6956382,1.3602416_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.7148166,1.4265732_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>cuts/103.6956382,1.3602416_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.7148166,1.4265732_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>cuts/103.6956382,1.3602416_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.7148166,1.4265732_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>cuts/103.6956382,1.3602416_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.7148166,1.4265732_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>cuts/103.6956382,1.3602416_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.7148166,1.4265732_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>103.7148166_1.4265732_10350_0145_86</t>
+          <t>103.8147625_2.0137282_10350_0145_86</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>103.7148166</v>
+        <v>103.8147625</v>
       </c>
       <c r="C87" t="n">
-        <v>1.4265732</v>
+        <v>2.0137282</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -15773,41 +15648,41 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>cuts/103.7148166,1.4265732_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.8147625,2.0137282_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>cuts/103.7148166,1.4265732_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.8147625,2.0137282_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>cuts/103.7148166,1.4265732_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.8147625,2.0137282_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>cuts/103.7148166,1.4265732_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.8147625,2.0137282_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>cuts/103.7148166,1.4265732_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.8147625,2.0137282_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>103.8147625_2.0137282_10350_0145_87</t>
+          <t>103.5506114_1.9822495_10350_0145_87</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>103.8147625</v>
+        <v>103.5506114</v>
       </c>
       <c r="C88" t="n">
-        <v>2.0137282</v>
+        <v>1.9822495</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -15816,41 +15691,41 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>cuts/103.8147625,2.0137282_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.5506114,1.9822495_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>cuts/103.8147625,2.0137282_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.5506114,1.9822495_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>cuts/103.8147625,2.0137282_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.5506114,1.9822495_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>cuts/103.8147625,2.0137282_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.5506114,1.9822495_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>cuts/103.8147625,2.0137282_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.5506114,1.9822495_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>103.5506114_1.9822495_10350_0145_88</t>
+          <t>103.4809052_2.0822500_10350_0145_88</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>103.5506114</v>
+        <v>103.4809052</v>
       </c>
       <c r="C89" t="n">
-        <v>1.9822495</v>
+        <v>2.08225</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -15859,41 +15734,41 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>cuts/103.5506114,1.9822495_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.4809052,2.0822500_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>cuts/103.5506114,1.9822495_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.4809052,2.0822500_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>cuts/103.5506114,1.9822495_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.4809052,2.0822500_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>cuts/103.5506114,1.9822495_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.4809052,2.0822500_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>cuts/103.5506114,1.9822495_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.4809052,2.0822500_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>103.4809052_2.0822500_10350_0145_89</t>
+          <t>103.4260763_0.9389155_10350_0145_89</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>103.4809052</v>
+        <v>103.4260763</v>
       </c>
       <c r="C90" t="n">
-        <v>2.08225</v>
+        <v>0.9389155</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -15902,41 +15777,41 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>cuts/103.4809052,2.0822500_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.4260763,0.9389155_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>cuts/103.4809052,2.0822500_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.4260763,0.9389155_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>cuts/103.4809052,2.0822500_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.4260763,0.9389155_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>cuts/103.4809052,2.0822500_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.4260763,0.9389155_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>cuts/103.4809052,2.0822500_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.4260763,0.9389155_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>103.4260763_0.9389155_10350_0145_90</t>
+          <t>103.3485743_0.8602450_10350_0145_90</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>103.4260763</v>
+        <v>103.3485743</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9389155</v>
+        <v>0.860245</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -15945,41 +15820,41 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>cuts/103.4260763,0.9389155_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.3485743,0.8602450_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>cuts/103.4260763,0.9389155_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.3485743,0.8602450_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>cuts/103.4260763,0.9389155_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.3485743,0.8602450_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>cuts/103.4260763,0.9389155_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.3485743,0.8602450_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>cuts/103.4260763,0.9389155_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.3485743,0.8602450_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>103.3485743_0.8602450_10350_0145_91</t>
+          <t>103.2025886_1.9535639_10350_0145_91</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>103.3485743</v>
+        <v>103.2025886</v>
       </c>
       <c r="C92" t="n">
-        <v>0.860245</v>
+        <v>1.9535639</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -15988,41 +15863,41 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>cuts/103.3485743,0.8602450_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.2025886,1.9535639_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>cuts/103.3485743,0.8602450_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.2025886,1.9535639_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>cuts/103.3485743,0.8602450_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.2025886,1.9535639_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>cuts/103.3485743,0.8602450_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.2025886,1.9535639_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>cuts/103.3485743,0.8602450_10350_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/103.2025886,1.9535639_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>103.2025886_1.9535639_10350_0145_92</t>
+          <t>103.8771187_1.3460160_10350_0145_92</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>103.2025886</v>
+        <v>103.8771187</v>
       </c>
       <c r="C93" t="n">
-        <v>1.9535639</v>
+        <v>1.346016</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -16031,68 +15906,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>cuts/103.2025886,1.9535639_10350_0145_RGB-composite.jpeg</t>
+          <t>cuts/103.8771187,1.3460160_10350_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>cuts/103.2025886,1.9535639_10350_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/103.8771187,1.3460160_10350_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>cuts/103.2025886,1.9535639_10350_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/103.8771187,1.3460160_10350_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>cuts/103.2025886,1.9535639_10350_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/103.8771187,1.3460160_10350_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
-        <is>
-          <t>cuts/103.2025886,1.9535639_10350_0145_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>103.8771187_1.3460160_10350_0145_93</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>103.8771187</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1.346016</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>cuts/103.8771187,1.3460160_10350_0145_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>cuts/103.8771187,1.3460160_10350_0145_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>cuts/103.8771187,1.3460160_10350_0145_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>cuts/103.8771187,1.3460160_10350_0145_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
         <is>
           <t>cuts/103.8771187,1.3460160_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
@@ -16109,7 +15941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1198"/>
+  <dimension ref="A1:R1185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16416,399 +16248,392 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>103.7295557_2.0962384_10350_0145_37</t>
+          <t>103.8417332_1.7182243_10350_0145_37</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>103.8417332_1.7182243_10350_0145_38</t>
+          <t>103.6578309_1.8860779_10350_0145_38</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>103.6578309_1.8860779_10350_0145_39</t>
+          <t>103.4608963_1.9039164_10350_0145_39</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>103.4608963_1.9039164_10350_0145_40</t>
+          <t>103.4185419_1.8769152_10350_0145_40</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>103.4185419_1.8769152_10350_0145_41</t>
+          <t>103.5651152_1.8315824_10350_0145_41</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>103.5651152_1.8315824_10350_0145_42</t>
+          <t>103.4664015_1.7495831_10350_0145_42</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>103.4664015_1.7495831_10350_0145_43</t>
+          <t>103.5821173_1.6620819_10350_0145_43</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>103.5821173_1.6620819_10350_0145_44</t>
+          <t>103.5714462_1.6609156_10350_0145_44</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>103.5714462_1.6609156_10350_0145_45</t>
+          <t>103.5285949_1.6390832_10350_0145_45</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>103.5285949_1.6390832_10350_0145_46</t>
+          <t>103.4392291_1.5044159_10350_0145_46</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>103.4392291_1.5044159_10350_0145_47</t>
+          <t>103.3775432_1.4679134_10350_0145_47</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>103.3775432_1.4679134_10350_0145_48</t>
+          <t>103.3313603_1.4820771_10350_0145_48</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>103.3313603_1.4820771_10350_0145_49</t>
+          <t>103.4454064_1.1497494_10350_0145_49</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>103.4454064_1.1497494_10350_0145_50</t>
+          <t>103.4652452_1.0365831_10350_0145_50</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>103.4652452_1.0365831_10350_0145_51</t>
+          <t>103.4970829_1.0829167_10350_0145_51</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>103.4970829_1.0829167_10350_0145_52</t>
+          <t>103.3797412_0.8912469_10350_0145_52</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>103.3797412_0.8912469_10350_0145_53</t>
+          <t>103.1751635_1.3278934_10350_0145_53</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>103.1751635_1.3278934_10350_0145_54</t>
+          <t>103.3476802_1.7622449_10350_0145_54</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>103.3476802_1.7622449_10350_0145_55</t>
+          <t>103.3315045_1.7842438_10350_0145_55</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>103.3315045_1.7842438_10350_0145_56</t>
+          <t>103.3268356_1.7850768_10350_0145_56</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>103.3268356_1.7850768_10350_0145_57</t>
+          <t>103.4218751_1.9304154_10350_0145_57</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>103.4218751_1.9304154_10350_0145_58</t>
+          <t>103.3208189_1.9604096_10350_0145_58</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>103.3208189_1.9604096_10350_0145_59</t>
+          <t>103.3059768_1.9687417_10350_0145_59</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>103.3059768_1.9687417_10350_0145_60</t>
+          <t>103.4670657_1.9394165_10350_0145_60</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>103.4670657_1.9394165_10350_0145_61</t>
+          <t>103.0820182_1.9807115_10350_0145_61</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>103.0820182_1.9807115_10350_0145_62</t>
+          <t>103.0791878_1.9563776_10350_0145_62</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>103.0791878_1.9563776_10350_0145_63</t>
+          <t>103.2012538_1.9595637_10350_0145_63</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>103.2012538_1.9595637_10350_0145_64</t>
+          <t>103.1922526_1.9322291_10350_0145_64</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>103.1922526_1.9322291_10350_0145_65</t>
+          <t>103.2122792_1.8070651_10350_0145_65</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>103.2122792_1.8070651_10350_0145_66</t>
+          <t>103.0837763_1.4887118_10350_0145_66</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>103.0837763_1.4887118_10350_0145_67</t>
+          <t>103.1689646_1.5368925_10350_0145_67</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>103.1689646_1.5368925_10350_0145_68</t>
+          <t>103.1188482_1.4013540_10350_0145_68</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>103.1188482_1.4013540_10350_0145_69</t>
+          <t>103.1046329_1.3959275_10350_0145_69</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>103.1046329_1.3959275_10350_0145_70</t>
+          <t>103.1281576_1.2878862_10350_0145_70</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>103.1281576_1.2878862_10350_0145_71</t>
+          <t>103.1290140_1.1482197_10350_0145_71</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>103.1290140_1.1482197_10350_0145_72</t>
+          <t>103.1743792_0.9857266_10350_0145_72</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>103.1743792_0.9857266_10350_0145_73</t>
+          <t>103.0653716_0.9595417_10350_0145_73</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>103.0653716_0.9595417_10350_0145_74</t>
+          <t>103.1672224_0.9127256_10350_0145_74</t>
         </is>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>103.1672224_0.9127256_10350_0145_75</t>
+          <t>102.9663689_0.9276872_10350_0145_75</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>102.9663689_0.9276872_10350_0145_76</t>
+          <t>103.0078010_1.2568632_10350_0145_76</t>
         </is>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>103.0078010_1.2568632_10350_0145_77</t>
+          <t>102.9922751_1.3563598_10350_0145_77</t>
         </is>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>102.9922751_1.3563598_10350_0145_78</t>
+          <t>102.9987689_1.3925279_10350_0145_78</t>
         </is>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>102.9987689_1.3925279_10350_0145_79</t>
+          <t>103.0566214_1.3818733_10350_0145_79</t>
         </is>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>103.0566214_1.3818733_10350_0145_80</t>
+          <t>103.0450501_1.7197044_10350_0145_80</t>
         </is>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>103.0450501_1.7197044_10350_0145_81</t>
+          <t>102.9953121_1.9420272_10350_0145_81</t>
         </is>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>102.9953121_1.9420272_10350_0145_82</t>
+          <t>103.4045538_1.4252480_10350_0145_82</t>
         </is>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>103.4045538_1.4252480_10350_0145_83</t>
+          <t>103.9940303_1.2456962_10350_0145_83</t>
         </is>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>103.9940303_1.2456962_10350_0145_84</t>
+          <t>103.6956382_1.3602416_10350_0145_84</t>
         </is>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>103.6956382_1.3602416_10350_0145_85</t>
+          <t>103.7148166_1.4265732_10350_0145_85</t>
         </is>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>103.7148166_1.4265732_10350_0145_86</t>
+          <t>103.8147625_2.0137282_10350_0145_86</t>
         </is>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>103.8147625_2.0137282_10350_0145_87</t>
+          <t>103.5506114_1.9822495_10350_0145_87</t>
         </is>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>103.5506114_1.9822495_10350_0145_88</t>
+          <t>103.4809052_2.0822500_10350_0145_88</t>
         </is>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>103.4809052_2.0822500_10350_0145_89</t>
+          <t>103.4260763_0.9389155_10350_0145_89</t>
         </is>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>103.4260763_0.9389155_10350_0145_90</t>
+          <t>103.3485743_0.8602450_10350_0145_90</t>
         </is>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>103.3485743_0.8602450_10350_0145_91</t>
+          <t>103.2025886_1.9535639_10350_0145_91</t>
         </is>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>103.2025886_1.9535639_10350_0145_92</t>
-        </is>
-      </c>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="inlineStr">
-        <is>
-          <t>103.8771187_1.3460160_10350_0145_93</t>
+          <t>103.8771187_1.3460160_10350_0145_92</t>
         </is>
       </c>
     </row>

--- a/10350_0145.xlsx
+++ b/10350_0145.xlsx
@@ -11919,7 +11919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:Y93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11973,6 +11973,86 @@
           <t>3.5-micron Filter</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>I4 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>I4 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>I2 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>I2 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>I1 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>I1 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>I3 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>I3 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>I4 Contrast</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>I4 Bias</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>I2 Contrast</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>I2 Bias</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>I1 Contrast</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>I1 Bias</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>I3 Contrast</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>I3 Bias</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -12016,6 +12096,54 @@
           <t>cuts/103.7956050,1.4825481_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J2" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M2" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O2" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V2" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X2" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -12059,6 +12187,54 @@
           <t>cuts/103.3369027,0.9174108_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J3" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M3" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T3" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V3" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -12102,6 +12278,54 @@
           <t>cuts/104.0186289,1.6515240_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J4" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V4" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X4" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -12145,6 +12369,54 @@
           <t>cuts/103.7587934,1.1047352_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J5" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M5" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O5" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V5" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -12188,6 +12460,54 @@
           <t>cuts/103.6357573,0.8474127_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J6" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M6" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -12231,6 +12551,54 @@
           <t>cuts/103.6306068,1.1315796_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J7" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K7" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M7" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -12274,6 +12642,54 @@
           <t>cuts/103.6247822,1.3094133_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J8" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M8" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O8" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V8" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -12317,6 +12733,54 @@
           <t>cuts/103.5912764,1.3790816_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J9" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M9" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V9" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X9" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -12360,6 +12824,54 @@
           <t>cuts/103.6549743,1.5665781_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J10" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K10" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M10" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O10" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V10" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X10" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -12403,6 +12915,54 @@
           <t>cuts/103.4767471,1.0099166_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J11" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K11" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M11" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V11" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -12446,6 +13006,54 @@
           <t>cuts/103.1529022,1.9063901_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J12" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K12" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M12" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O12" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T12" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V12" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X12" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -12489,6 +13097,54 @@
           <t>cuts/103.1091041,1.5703830_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J13" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K13" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M13" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O13" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T13" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V13" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X13" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12532,6 +13188,54 @@
           <t>cuts/103.2196463,1.5628993_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J14" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K14" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M14" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O14" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V14" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X14" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12575,6 +13279,54 @@
           <t>cuts/103.1376445,1.3845544_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J15" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K15" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M15" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O15" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T15" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V15" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X15" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12618,6 +13370,54 @@
           <t>cuts/103.1103379,1.1827166_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J16" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K16" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M16" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O16" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V16" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X16" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12661,6 +13461,54 @@
           <t>cuts/102.9691542,1.1336878_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J17" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K17" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M17" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O17" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T17" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V17" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X17" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12704,6 +13552,54 @@
           <t>cuts/103.0042553,1.4621958_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J18" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K18" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M18" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O18" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T18" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V18" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X18" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12747,6 +13643,54 @@
           <t>cuts/103.0197038,1.7285325_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J19" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K19" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M19" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O19" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T19" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V19" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12790,6 +13734,54 @@
           <t>cuts/104.0076611,1.0716932_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J20" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K20" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M20" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O20" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T20" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V20" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X20" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12833,6 +13825,54 @@
           <t>cuts/103.9124778,1.0607125_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J21" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K21" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M21" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O21" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T21" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V21" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X21" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -12876,6 +13916,54 @@
           <t>cuts/103.3968739,1.6637477_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J22" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K22" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M22" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O22" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T22" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V22" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X22" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -12919,6 +14007,54 @@
           <t>cuts/103.4142068,1.8640818_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J23" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K23" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M23" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O23" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T23" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V23" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X23" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -12962,6 +14098,54 @@
           <t>cuts/104.0217108,2.0013566_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J24" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K24" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M24" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O24" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T24" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V24" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X24" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -13005,6 +14189,54 @@
           <t>cuts/103.8875786,1.6712169_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J25" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K25" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M25" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O25" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T25" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V25" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X25" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -13048,6 +14280,54 @@
           <t>cuts/103.8847405,1.6498840_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J26" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K26" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M26" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O26" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T26" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V26" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X26" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -13091,6 +14371,54 @@
           <t>cuts/103.8842048,1.4408841_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J27" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K27" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M27" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O27" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T27" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V27" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X27" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -13134,6 +14462,54 @@
           <t>cuts/103.9555663,1.4687042_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J28" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K28" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M28" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O28" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T28" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V28" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X28" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -13177,6 +14553,54 @@
           <t>cuts/103.9855479,1.3370313_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J29" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K29" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M29" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O29" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T29" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V29" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X29" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -13220,6 +14644,54 @@
           <t>cuts/103.8591799,1.3335549_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J30" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K30" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M30" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O30" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T30" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V30" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X30" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -13263,6 +14735,54 @@
           <t>cuts/104.0076672,1.0988598_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J31" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K31" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M31" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O31" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T31" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V31" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X31" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -13306,6 +14826,54 @@
           <t>cuts/103.9744443,0.8568670_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J32" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K32" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M32" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O32" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T32" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V32" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X32" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -13349,6 +14917,54 @@
           <t>cuts/103.8003187,1.2430635_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J33" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K33" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M33" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O33" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T33" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V33" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X33" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -13392,6 +15008,54 @@
           <t>cuts/103.7460088,1.5727367_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J34" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K34" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M34" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O34" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T34" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V34" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X34" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -13435,6 +15099,54 @@
           <t>cuts/103.8026946,1.5572298_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J35" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K35" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M35" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O35" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T35" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V35" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X35" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -13478,6 +15190,54 @@
           <t>cuts/103.7625255,1.6635682_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J36" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K36" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M36" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O36" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T36" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V36" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X36" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -13521,6 +15281,54 @@
           <t>cuts/103.7130229,1.8537400_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J37" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K37" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M37" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O37" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T37" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V37" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X37" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -13564,6 +15372,54 @@
           <t>cuts/103.8417332,1.7182243_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J38" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K38" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M38" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O38" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T38" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V38" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X38" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -13607,6 +15463,54 @@
           <t>cuts/103.6578309,1.8860779_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J39" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K39" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M39" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O39" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T39" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V39" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X39" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -13650,6 +15554,54 @@
           <t>cuts/103.4608963,1.9039164_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J40" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K40" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M40" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O40" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T40" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V40" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X40" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -13693,6 +15645,54 @@
           <t>cuts/103.4185419,1.8769152_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J41" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K41" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M41" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O41" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T41" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V41" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X41" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -13736,6 +15736,54 @@
           <t>cuts/103.5651152,1.8315824_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J42" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K42" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M42" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O42" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T42" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V42" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X42" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -13779,6 +15827,54 @@
           <t>cuts/103.4664015,1.7495831_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J43" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K43" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M43" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O43" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T43" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V43" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X43" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -13822,6 +15918,54 @@
           <t>cuts/103.5821173,1.6620819_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J44" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K44" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M44" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O44" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T44" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V44" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X44" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -13865,6 +16009,54 @@
           <t>cuts/103.5714462,1.6609156_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J45" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K45" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M45" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O45" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T45" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V45" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X45" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -13908,6 +16100,54 @@
           <t>cuts/103.5285949,1.6390832_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J46" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K46" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M46" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O46" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T46" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V46" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X46" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -13951,6 +16191,54 @@
           <t>cuts/103.4392291,1.5044159_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J47" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K47" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M47" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O47" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T47" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V47" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X47" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13994,6 +16282,54 @@
           <t>cuts/103.3775432,1.4679134_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J48" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K48" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M48" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O48" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T48" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V48" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X48" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -14037,6 +16373,54 @@
           <t>cuts/103.3313603,1.4820771_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J49" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K49" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M49" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O49" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T49" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V49" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X49" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -14080,6 +16464,54 @@
           <t>cuts/103.4454064,1.1497494_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J50" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K50" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M50" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O50" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T50" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V50" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X50" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -14123,6 +16555,54 @@
           <t>cuts/103.4652452,1.0365831_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J51" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K51" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M51" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O51" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T51" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V51" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X51" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -14166,6 +16646,54 @@
           <t>cuts/103.4970829,1.0829167_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J52" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K52" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M52" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O52" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T52" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V52" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X52" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -14209,6 +16737,54 @@
           <t>cuts/103.3797412,0.8912469_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J53" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K53" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M53" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O53" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T53" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V53" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X53" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14252,6 +16828,54 @@
           <t>cuts/103.1751635,1.3278934_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J54" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K54" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M54" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O54" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T54" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V54" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X54" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14295,6 +16919,54 @@
           <t>cuts/103.3476802,1.7622449_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J55" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K55" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M55" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O55" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T55" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V55" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X55" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14338,6 +17010,54 @@
           <t>cuts/103.3315045,1.7842438_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J56" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K56" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M56" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O56" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T56" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V56" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X56" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14381,6 +17101,54 @@
           <t>cuts/103.3268356,1.7850768_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J57" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K57" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M57" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O57" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T57" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V57" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X57" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14424,6 +17192,54 @@
           <t>cuts/103.4218751,1.9304154_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J58" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K58" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M58" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O58" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T58" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V58" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X58" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14467,6 +17283,54 @@
           <t>cuts/103.3208189,1.9604096_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J59" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K59" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M59" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O59" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T59" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V59" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X59" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -14510,6 +17374,54 @@
           <t>cuts/103.3059768,1.9687417_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J60" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K60" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M60" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O60" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T60" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V60" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X60" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -14553,6 +17465,54 @@
           <t>cuts/103.4670657,1.9394165_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J61" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K61" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M61" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O61" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P61" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T61" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V61" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X61" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14596,6 +17556,54 @@
           <t>cuts/103.0820182,1.9807115_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J62" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K62" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M62" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O62" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T62" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V62" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X62" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14639,6 +17647,54 @@
           <t>cuts/103.0791878,1.9563776_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J63" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K63" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M63" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O63" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T63" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V63" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X63" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14682,6 +17738,54 @@
           <t>cuts/103.2012538,1.9595637_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J64" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K64" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M64" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O64" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T64" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V64" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X64" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14725,6 +17829,54 @@
           <t>cuts/103.1922526,1.9322291_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J65" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K65" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M65" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O65" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T65" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V65" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X65" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14768,6 +17920,54 @@
           <t>cuts/103.2122792,1.8070651_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J66" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K66" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M66" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O66" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T66" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V66" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X66" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14811,6 +18011,54 @@
           <t>cuts/103.0837763,1.4887118_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J67" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K67" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M67" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O67" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T67" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V67" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X67" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14854,6 +18102,54 @@
           <t>cuts/103.1689646,1.5368925_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J68" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K68" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M68" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O68" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P68" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T68" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V68" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X68" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14897,6 +18193,54 @@
           <t>cuts/103.1188482,1.4013540_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J69" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K69" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M69" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O69" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P69" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T69" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V69" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X69" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14940,6 +18284,54 @@
           <t>cuts/103.1046329,1.3959275_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J70" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K70" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M70" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O70" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P70" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T70" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V70" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X70" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14983,6 +18375,54 @@
           <t>cuts/103.1281576,1.2878862_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J71" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K71" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M71" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O71" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P71" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T71" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V71" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X71" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15026,6 +18466,54 @@
           <t>cuts/103.1290140,1.1482197_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J72" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K72" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L72" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M72" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O72" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P72" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T72" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V72" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X72" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15069,6 +18557,54 @@
           <t>cuts/103.1743792,0.9857266_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J73" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K73" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M73" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O73" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P73" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T73" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V73" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X73" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15112,6 +18648,54 @@
           <t>cuts/103.0653716,0.9595417_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J74" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K74" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L74" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M74" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O74" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P74" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T74" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V74" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X74" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15155,6 +18739,54 @@
           <t>cuts/103.1672224,0.9127256_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J75" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K75" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L75" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M75" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O75" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P75" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T75" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V75" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X75" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -15198,6 +18830,54 @@
           <t>cuts/102.9663689,0.9276872_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J76" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K76" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L76" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M76" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O76" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P76" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T76" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V76" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X76" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -15241,6 +18921,54 @@
           <t>cuts/103.0078010,1.2568632_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J77" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K77" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L77" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M77" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O77" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P77" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T77" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V77" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X77" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -15284,6 +19012,54 @@
           <t>cuts/102.9922751,1.3563598_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J78" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K78" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L78" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M78" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O78" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P78" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T78" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V78" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X78" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -15327,6 +19103,54 @@
           <t>cuts/102.9987689,1.3925279_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J79" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K79" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L79" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M79" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O79" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P79" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T79" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V79" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X79" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -15370,6 +19194,54 @@
           <t>cuts/103.0566214,1.3818733_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J80" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K80" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L80" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M80" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O80" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P80" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T80" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V80" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X80" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -15413,6 +19285,54 @@
           <t>cuts/103.0450501,1.7197044_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J81" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K81" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L81" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M81" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O81" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P81" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T81" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V81" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X81" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -15456,6 +19376,54 @@
           <t>cuts/102.9953121,1.9420272_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J82" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K82" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L82" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M82" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O82" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P82" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T82" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V82" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X82" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -15499,6 +19467,54 @@
           <t>cuts/103.4045538,1.4252480_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J83" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K83" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L83" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M83" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O83" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P83" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T83" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V83" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X83" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -15542,6 +19558,54 @@
           <t>cuts/103.9940303,1.2456962_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J84" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K84" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L84" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M84" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O84" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P84" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T84" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V84" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X84" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -15585,6 +19649,54 @@
           <t>cuts/103.6956382,1.3602416_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J85" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K85" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L85" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M85" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O85" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P85" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T85" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V85" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X85" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -15628,6 +19740,54 @@
           <t>cuts/103.7148166,1.4265732_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J86" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K86" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L86" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M86" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O86" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P86" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T86" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V86" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X86" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -15671,6 +19831,54 @@
           <t>cuts/103.8147625,2.0137282_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J87" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K87" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L87" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M87" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O87" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P87" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T87" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V87" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X87" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -15714,6 +19922,54 @@
           <t>cuts/103.5506114,1.9822495_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J88" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K88" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L88" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M88" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O88" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P88" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T88" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V88" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X88" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -15757,6 +20013,54 @@
           <t>cuts/103.4809052,2.0822500_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J89" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K89" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L89" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M89" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O89" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P89" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T89" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V89" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X89" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -15800,6 +20104,54 @@
           <t>cuts/103.4260763,0.9389155_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J90" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K90" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L90" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M90" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O90" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P90" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T90" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V90" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X90" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -15843,6 +20195,54 @@
           <t>cuts/103.3485743,0.8602450_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J91" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K91" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L91" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M91" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O91" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P91" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T91" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V91" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X91" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -15886,6 +20286,54 @@
           <t>cuts/103.2025886,1.9535639_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J92" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K92" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L92" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M92" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O92" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P92" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T92" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V92" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X92" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>0.518656</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -15928,6 +20376,54 @@
         <is>
           <t>cuts/103.8771187,1.3460160_10350_0145_Azul-3.5micras.jpeg</t>
         </is>
+      </c>
+      <c r="J93" t="n">
+        <v>5.054</v>
+      </c>
+      <c r="K93" t="n">
+        <v>15.1863</v>
+      </c>
+      <c r="L93" t="n">
+        <v>-0.5759880000000001</v>
+      </c>
+      <c r="M93" t="n">
+        <v>13.1103</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-0.177891</v>
+      </c>
+      <c r="O93" t="n">
+        <v>8.5776</v>
+      </c>
+      <c r="P93" t="n">
+        <v>-1.66959</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>19.7991</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5.63506</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.365234</v>
+      </c>
+      <c r="T93" t="n">
+        <v>5.04472</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="V93" t="n">
+        <v>5.88551</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0.369792</v>
+      </c>
+      <c r="X93" t="n">
+        <v>5.559701</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0.518656</v>
       </c>
     </row>
   </sheetData>
